--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/34_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/34_11R22.xlsx
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03870502709331878</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01442294103101579</v>
+        <v>0.08457144122612088</v>
       </c>
       <c r="F2">
-        <v>0.05481627818721881</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.127566958481816</v>
+        <v>0.1665671271071001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.08287085775883807</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -695,70 +695,70 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01804883216754858</v>
+        <v>0.008185220064022973</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01872248229314389</v>
       </c>
       <c r="M2">
-        <v>0.04986564470169137</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001962358969917726</v>
+        <v>0.03462929242638666</v>
       </c>
       <c r="O2">
-        <v>0.1558656093300014</v>
+        <v>0.0342253815590654</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1329328191097628</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.09575161758967751</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.08740539744241302</v>
       </c>
       <c r="T2">
-        <v>0.2568037386478605</v>
+        <v>0.00235542941676125</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.1959198820579457</v>
       </c>
       <c r="V2">
-        <v>0.08930399832224134</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.07072477406827028</v>
       </c>
       <c r="X2">
-        <v>0.06503752042495724</v>
+        <v>0.003583283743337383</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.0439685140725229</v>
       </c>
       <c r="Z2">
-        <v>0.002951649283817465</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.004360804316237073</v>
       </c>
       <c r="AB2">
-        <v>0.01722365271253467</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01167417305638264</v>
+        <v>0.01741824732671275</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.00867135597331335</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.002887690038045289</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -784,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06030395935270255</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01833892476396565</v>
+        <v>0.1728809280572238</v>
       </c>
       <c r="F3">
-        <v>0.1264042207040559</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.1009281621099216</v>
+        <v>0.228687318397725</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.04249481367926647</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -805,67 +805,67 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.006161172916394787</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.01861986741488254</v>
       </c>
       <c r="M3">
-        <v>0.02290097862502213</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.007043483693416783</v>
       </c>
       <c r="O3">
-        <v>0.1387815912424963</v>
+        <v>0.06929175436053406</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.08971747467029417</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.002071417518635323</v>
       </c>
       <c r="R3">
-        <v>0.03740446883307973</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.05149099313750871</v>
       </c>
       <c r="T3">
-        <v>0.1984627542252333</v>
+        <v>0.05121251909898747</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.1266054848195321</v>
       </c>
       <c r="V3">
-        <v>0.08984786457455754</v>
+        <v>0.01618646643725389</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.03793256996620089</v>
       </c>
       <c r="X3">
-        <v>0.0978104781306605</v>
+        <v>0.02562274096242577</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.0269383872540347</v>
       </c>
       <c r="Z3">
-        <v>0.0204739724653183</v>
+        <v>0.002401085435425602</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05130134309047839</v>
+        <v>0.0004980654020620921</v>
       </c>
       <c r="AC3">
-        <v>0.02295002717320101</v>
+        <v>0.02834044618828464</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.007930081792912311</v>
+        <v>0.001964183506306175</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -894,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05652261696613039</v>
+        <v>0.0498952464202236</v>
       </c>
       <c r="E4">
-        <v>0.02271715538431906</v>
+        <v>0.02337965395445596</v>
       </c>
       <c r="F4">
-        <v>0.165753648731275</v>
+        <v>0.12297622539169</v>
       </c>
       <c r="G4">
-        <v>0.0956362656625275</v>
+        <v>0.1410350046018686</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01407712531381272</v>
       </c>
       <c r="K4">
-        <v>0.02588740307222113</v>
+        <v>0.005719178801708616</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.007985089992038575</v>
       </c>
       <c r="M4">
-        <v>0.04432237569580003</v>
+        <v>0.01838475106665975</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.005562992463979012</v>
       </c>
       <c r="O4">
-        <v>0.1749542918933592</v>
+        <v>0.1711658820531211</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -936,40 +936,40 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.03546836936935121</v>
+        <v>0.05927685287524737</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1587505841899322</v>
+        <v>0.1651729870377995</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.08371135053624627</v>
+        <v>0.08306956623594997</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0719702556851963</v>
+        <v>0.06677763421451555</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01057916320763586</v>
+        <v>0.01545606746124388</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04611142699941614</v>
+        <v>0.03466013886941968</v>
       </c>
       <c r="AC4">
-        <v>0.007615092606589643</v>
+        <v>0.01540560324626599</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1007,85 +1007,85 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1123365162505709</v>
+        <v>0.1343147580464003</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.08023435786795294</v>
+        <v>0.2149794507666789</v>
       </c>
       <c r="H5">
-        <v>0.0548712682281909</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.008559740557759649</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01193322492969846</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05051418482231758</v>
+        <v>0.03590487230435119</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.04832634546479715</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.04971525270161967</v>
+        <v>0.1066180672263987</v>
       </c>
       <c r="P5">
-        <v>0.151924940671481</v>
+        <v>0.06104891090875249</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.0127434912545719</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.03894356192885025</v>
+        <v>0.02939141155012085</v>
       </c>
       <c r="T5">
-        <v>0.0523576996723563</v>
+        <v>0.08217725273069976</v>
       </c>
       <c r="U5">
-        <v>0.1580301522983452</v>
+        <v>0.1136458612846165</v>
       </c>
       <c r="V5">
-        <v>0.01205157270082377</v>
+        <v>0.02298487113742278</v>
       </c>
       <c r="W5">
-        <v>0.04955608083125958</v>
+        <v>0.01685455447673016</v>
       </c>
       <c r="X5">
-        <v>0.03398299333837992</v>
+        <v>0.05647549717225502</v>
       </c>
       <c r="Y5">
-        <v>0.04609276335575605</v>
+        <v>0.02475477371664055</v>
       </c>
       <c r="Z5">
-        <v>0.0001176131962880529</v>
+        <v>0.008599962861450499</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.01340084435790701</v>
+        <v>0.02185379075852954</v>
       </c>
       <c r="AC5">
-        <v>0.03752828328949263</v>
+        <v>0.03705240668982553</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001455828465851617</v>
+        <v>0.005403367850013785</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.003263474334843034</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.160701448128282</v>
+        <v>0.1771507151145562</v>
       </c>
       <c r="F6">
-        <v>0.018548893209366</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2405999813044859</v>
+        <v>0.2101698653236925</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.03588679022922567</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1138,64 +1138,64 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03463559353624502</v>
+        <v>0.02531208872190481</v>
       </c>
       <c r="M6">
-        <v>0.03066996784170477</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1233111703301069</v>
+        <v>0.07414864962115657</v>
       </c>
       <c r="P6">
-        <v>0.01090467497612231</v>
+        <v>0.09237383182305908</v>
       </c>
       <c r="Q6">
-        <v>0.009768924621187827</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.007150223823547681</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.04978261201688025</v>
       </c>
       <c r="T6">
-        <v>0.1191762215200979</v>
+        <v>0.03988963908832272</v>
       </c>
       <c r="U6">
-        <v>0.02328755529402197</v>
+        <v>0.1212862453976536</v>
       </c>
       <c r="V6">
-        <v>0.07460492484545161</v>
+        <v>0.0144605450701462</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.03901372461278434</v>
       </c>
       <c r="X6">
-        <v>0.07524020089070731</v>
+        <v>0.02701584454836417</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.0350558061323844</v>
       </c>
       <c r="Z6">
-        <v>0.02241279848880293</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01427928202436894</v>
+        <v>0.008390812056361829</v>
       </c>
       <c r="AC6">
-        <v>0.02300232741845698</v>
+        <v>0.04888899260631004</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.001173837637197552</v>
       </c>
       <c r="AE6">
-        <v>0.01170581174704414</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03870502709331878</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05312796812433457</v>
+        <v>0.08457144122612088</v>
       </c>
       <c r="F2">
-        <v>0.1079442463115534</v>
+        <v>0.08457144122612088</v>
       </c>
       <c r="G2">
-        <v>0.2355112047933694</v>
+        <v>0.251138568333221</v>
       </c>
       <c r="H2">
-        <v>0.2355112047933694</v>
+        <v>0.3340094260920591</v>
       </c>
       <c r="I2">
-        <v>0.2355112047933694</v>
+        <v>0.3340094260920591</v>
       </c>
       <c r="J2">
-        <v>0.2355112047933694</v>
+        <v>0.3340094260920591</v>
       </c>
       <c r="K2">
-        <v>0.253560036960918</v>
+        <v>0.342194646156082</v>
       </c>
       <c r="L2">
-        <v>0.253560036960918</v>
+        <v>0.3609171284492259</v>
       </c>
       <c r="M2">
-        <v>0.3034256816626094</v>
+        <v>0.3609171284492259</v>
       </c>
       <c r="N2">
-        <v>0.3053880406325271</v>
+        <v>0.3955464208756126</v>
       </c>
       <c r="O2">
-        <v>0.4612536499625285</v>
+        <v>0.429771802434678</v>
       </c>
       <c r="P2">
-        <v>0.4612536499625285</v>
+        <v>0.5627046215444408</v>
       </c>
       <c r="Q2">
-        <v>0.4612536499625285</v>
+        <v>0.5627046215444408</v>
       </c>
       <c r="R2">
-        <v>0.557005267552206</v>
+        <v>0.5627046215444408</v>
       </c>
       <c r="S2">
-        <v>0.557005267552206</v>
+        <v>0.6501100189868538</v>
       </c>
       <c r="T2">
-        <v>0.8138090062000666</v>
+        <v>0.6524654484036151</v>
       </c>
       <c r="U2">
-        <v>0.8138090062000666</v>
+        <v>0.8483853304615607</v>
       </c>
       <c r="V2">
-        <v>0.9031130045223079</v>
+        <v>0.8483853304615607</v>
       </c>
       <c r="W2">
-        <v>0.9031130045223079</v>
+        <v>0.919110104529831</v>
       </c>
       <c r="X2">
-        <v>0.9681505249472652</v>
+        <v>0.9226933882731684</v>
       </c>
       <c r="Y2">
-        <v>0.9681505249472652</v>
+        <v>0.9666619023456913</v>
       </c>
       <c r="Z2">
-        <v>0.9711021742310826</v>
+        <v>0.9666619023456913</v>
       </c>
       <c r="AA2">
-        <v>0.9711021742310826</v>
+        <v>0.9710227066619284</v>
       </c>
       <c r="AB2">
-        <v>0.9883258269436173</v>
+        <v>0.9710227066619284</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999999</v>
+        <v>0.9884409539886411</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999999</v>
+        <v>0.9971123099619544</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>0.9971123099619544</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,85 +1457,85 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06030395935270255</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0786428841166682</v>
+        <v>0.1728809280572238</v>
       </c>
       <c r="F3">
-        <v>0.2050471048207241</v>
+        <v>0.1728809280572238</v>
       </c>
       <c r="G3">
-        <v>0.3059752669306457</v>
+        <v>0.4015682464549488</v>
       </c>
       <c r="H3">
-        <v>0.3059752669306457</v>
+        <v>0.4440630601342153</v>
       </c>
       <c r="I3">
-        <v>0.3059752669306457</v>
+        <v>0.4440630601342153</v>
       </c>
       <c r="J3">
-        <v>0.3059752669306457</v>
+        <v>0.4440630601342153</v>
       </c>
       <c r="K3">
-        <v>0.3121364398470405</v>
+        <v>0.4440630601342153</v>
       </c>
       <c r="L3">
-        <v>0.3121364398470405</v>
+        <v>0.4626829275490978</v>
       </c>
       <c r="M3">
-        <v>0.3350374184720626</v>
+        <v>0.4626829275490978</v>
       </c>
       <c r="N3">
-        <v>0.3350374184720626</v>
+        <v>0.4697264112425146</v>
       </c>
       <c r="O3">
-        <v>0.4738190097145589</v>
+        <v>0.5390181656030486</v>
       </c>
       <c r="P3">
-        <v>0.4738190097145589</v>
+        <v>0.6287356402733428</v>
       </c>
       <c r="Q3">
-        <v>0.4738190097145589</v>
+        <v>0.6308070577919782</v>
       </c>
       <c r="R3">
-        <v>0.5112234785476386</v>
+        <v>0.6308070577919782</v>
       </c>
       <c r="S3">
-        <v>0.5112234785476386</v>
+        <v>0.6822980509294869</v>
       </c>
       <c r="T3">
-        <v>0.7096862327728719</v>
+        <v>0.7335105700284744</v>
       </c>
       <c r="U3">
-        <v>0.7096862327728719</v>
+        <v>0.8601160548480066</v>
       </c>
       <c r="V3">
-        <v>0.7995340973474294</v>
+        <v>0.8763025212852604</v>
       </c>
       <c r="W3">
-        <v>0.7995340973474294</v>
+        <v>0.9142350912514613</v>
       </c>
       <c r="X3">
-        <v>0.8973445754780899</v>
+        <v>0.9398578322138871</v>
       </c>
       <c r="Y3">
-        <v>0.8973445754780899</v>
+        <v>0.9667962194679218</v>
       </c>
       <c r="Z3">
-        <v>0.9178185479434082</v>
+        <v>0.9691973049033474</v>
       </c>
       <c r="AA3">
-        <v>0.9178185479434082</v>
+        <v>0.9691973049033474</v>
       </c>
       <c r="AB3">
-        <v>0.9691198910338866</v>
+        <v>0.9696953703054095</v>
       </c>
       <c r="AC3">
-        <v>0.9920699182070877</v>
+        <v>0.9980358164936942</v>
       </c>
       <c r="AD3">
-        <v>0.9920699182070877</v>
+        <v>0.9980358164936942</v>
       </c>
       <c r="AE3">
         <v>1</v>
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05652261696613039</v>
+        <v>0.0498952464202236</v>
       </c>
       <c r="E4">
-        <v>0.07923977235044945</v>
+        <v>0.07327490037467957</v>
       </c>
       <c r="F4">
-        <v>0.2449934210817245</v>
+        <v>0.1962511257663696</v>
       </c>
       <c r="G4">
-        <v>0.340629686744252</v>
+        <v>0.3372861303682382</v>
       </c>
       <c r="H4">
-        <v>0.340629686744252</v>
+        <v>0.3372861303682382</v>
       </c>
       <c r="I4">
-        <v>0.340629686744252</v>
+        <v>0.3372861303682382</v>
       </c>
       <c r="J4">
-        <v>0.340629686744252</v>
+        <v>0.3513632556820509</v>
       </c>
       <c r="K4">
-        <v>0.3665170898164731</v>
+        <v>0.3570824344837595</v>
       </c>
       <c r="L4">
-        <v>0.3665170898164731</v>
+        <v>0.3650675244757981</v>
       </c>
       <c r="M4">
-        <v>0.4108394655122732</v>
+        <v>0.3834522755424579</v>
       </c>
       <c r="N4">
-        <v>0.4108394655122732</v>
+        <v>0.3890152680064369</v>
       </c>
       <c r="O4">
-        <v>0.5857937574056324</v>
+        <v>0.5601811500595579</v>
       </c>
       <c r="P4">
-        <v>0.5857937574056324</v>
+        <v>0.5601811500595579</v>
       </c>
       <c r="Q4">
-        <v>0.5857937574056324</v>
+        <v>0.5601811500595579</v>
       </c>
       <c r="R4">
-        <v>0.6212621267749836</v>
+        <v>0.6194580029348054</v>
       </c>
       <c r="S4">
-        <v>0.6212621267749836</v>
+        <v>0.6194580029348054</v>
       </c>
       <c r="T4">
-        <v>0.7800127109649158</v>
+        <v>0.7846309899726048</v>
       </c>
       <c r="U4">
-        <v>0.7800127109649158</v>
+        <v>0.7846309899726048</v>
       </c>
       <c r="V4">
-        <v>0.863724061501162</v>
+        <v>0.8677005562085548</v>
       </c>
       <c r="W4">
-        <v>0.863724061501162</v>
+        <v>0.8677005562085548</v>
       </c>
       <c r="X4">
-        <v>0.9356943171863583</v>
+        <v>0.9344781904230703</v>
       </c>
       <c r="Y4">
-        <v>0.9356943171863583</v>
+        <v>0.9344781904230703</v>
       </c>
       <c r="Z4">
-        <v>0.9462734803939942</v>
+        <v>0.9499342578843142</v>
       </c>
       <c r="AA4">
-        <v>0.9462734803939942</v>
+        <v>0.9499342578843142</v>
       </c>
       <c r="AB4">
-        <v>0.9923849073934103</v>
+        <v>0.9845943967537338</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1680,94 +1680,94 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1123365162505709</v>
+        <v>0.1343147580464003</v>
       </c>
       <c r="F5">
-        <v>0.1123365162505709</v>
+        <v>0.1343147580464003</v>
       </c>
       <c r="G5">
-        <v>0.1925708741185238</v>
+        <v>0.3492942088130792</v>
       </c>
       <c r="H5">
-        <v>0.2474421423467147</v>
+        <v>0.3492942088130792</v>
       </c>
       <c r="I5">
-        <v>0.2560018829044744</v>
+        <v>0.3492942088130792</v>
       </c>
       <c r="J5">
-        <v>0.2560018829044744</v>
+        <v>0.3612274337427777</v>
       </c>
       <c r="K5">
-        <v>0.2560018829044744</v>
+        <v>0.3612274337427777</v>
       </c>
       <c r="L5">
-        <v>0.306516067726792</v>
+        <v>0.3971323060471288</v>
       </c>
       <c r="M5">
-        <v>0.306516067726792</v>
+        <v>0.3971323060471288</v>
       </c>
       <c r="N5">
-        <v>0.3548424131915891</v>
+        <v>0.3971323060471288</v>
       </c>
       <c r="O5">
-        <v>0.4045576658932088</v>
+        <v>0.5037503732735276</v>
       </c>
       <c r="P5">
-        <v>0.5564826065646898</v>
+        <v>0.5647992841822801</v>
       </c>
       <c r="Q5">
-        <v>0.5564826065646898</v>
+        <v>0.577542775436852</v>
       </c>
       <c r="R5">
-        <v>0.5564826065646898</v>
+        <v>0.577542775436852</v>
       </c>
       <c r="S5">
-        <v>0.5954261684935401</v>
+        <v>0.6069341869869728</v>
       </c>
       <c r="T5">
-        <v>0.6477838681658964</v>
+        <v>0.6891114397176725</v>
       </c>
       <c r="U5">
-        <v>0.8058140204642417</v>
+        <v>0.802757301002289</v>
       </c>
       <c r="V5">
-        <v>0.8178655931650655</v>
+        <v>0.8257421721397118</v>
       </c>
       <c r="W5">
-        <v>0.8674216739963251</v>
+        <v>0.8425967266164419</v>
       </c>
       <c r="X5">
-        <v>0.901404667334705</v>
+        <v>0.8990722237886969</v>
       </c>
       <c r="Y5">
-        <v>0.9474974306904611</v>
+        <v>0.9238269975053375</v>
       </c>
       <c r="Z5">
-        <v>0.9476150438867491</v>
+        <v>0.932426960366788</v>
       </c>
       <c r="AA5">
-        <v>0.9476150438867491</v>
+        <v>0.932426960366788</v>
       </c>
       <c r="AB5">
-        <v>0.9610158882446561</v>
+        <v>0.9542807511253175</v>
       </c>
       <c r="AC5">
-        <v>0.9985441715341488</v>
+        <v>0.9913331578151431</v>
       </c>
       <c r="AD5">
-        <v>0.9985441715341488</v>
+        <v>0.9913331578151431</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9967365256651569</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9967365256651569</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9967365256651569</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9967365256651569</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -1790,100 +1790,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.160701448128282</v>
+        <v>0.1771507151145562</v>
       </c>
       <c r="F6">
-        <v>0.179250341337648</v>
+        <v>0.1771507151145562</v>
       </c>
       <c r="G6">
-        <v>0.419850322642134</v>
+        <v>0.3873205804382487</v>
       </c>
       <c r="H6">
-        <v>0.419850322642134</v>
+        <v>0.4232073706674744</v>
       </c>
       <c r="I6">
-        <v>0.419850322642134</v>
+        <v>0.4232073706674744</v>
       </c>
       <c r="J6">
-        <v>0.419850322642134</v>
+        <v>0.4232073706674744</v>
       </c>
       <c r="K6">
-        <v>0.419850322642134</v>
+        <v>0.4232073706674744</v>
       </c>
       <c r="L6">
-        <v>0.454485916178379</v>
+        <v>0.4485194593893792</v>
       </c>
       <c r="M6">
-        <v>0.4851558840200837</v>
+        <v>0.4485194593893792</v>
       </c>
       <c r="N6">
-        <v>0.4851558840200837</v>
+        <v>0.4485194593893792</v>
       </c>
       <c r="O6">
-        <v>0.6084670543501907</v>
+        <v>0.5226681090105357</v>
       </c>
       <c r="P6">
-        <v>0.619371729326313</v>
+        <v>0.6150419408335948</v>
       </c>
       <c r="Q6">
-        <v>0.6291406539475008</v>
+        <v>0.6150419408335948</v>
       </c>
       <c r="R6">
-        <v>0.6362908777710485</v>
+        <v>0.6150419408335948</v>
       </c>
       <c r="S6">
-        <v>0.6362908777710485</v>
+        <v>0.664824552850475</v>
       </c>
       <c r="T6">
-        <v>0.7554670992911464</v>
+        <v>0.7047141919387978</v>
       </c>
       <c r="U6">
-        <v>0.7787546545851683</v>
+        <v>0.8260004373364515</v>
       </c>
       <c r="V6">
-        <v>0.8533595794306199</v>
+        <v>0.8404609824065976</v>
       </c>
       <c r="W6">
-        <v>0.8533595794306199</v>
+        <v>0.8794747070193819</v>
       </c>
       <c r="X6">
-        <v>0.9285997803213272</v>
+        <v>0.9064905515677461</v>
       </c>
       <c r="Y6">
-        <v>0.9285997803213272</v>
+        <v>0.9415463577001304</v>
       </c>
       <c r="Z6">
-        <v>0.9510125788101301</v>
+        <v>0.9415463577001304</v>
       </c>
       <c r="AA6">
-        <v>0.9510125788101301</v>
+        <v>0.9415463577001304</v>
       </c>
       <c r="AB6">
-        <v>0.965291860834499</v>
+        <v>0.9499371697564922</v>
       </c>
       <c r="AC6">
-        <v>0.988294188252956</v>
+        <v>0.9988261623628023</v>
       </c>
       <c r="AD6">
-        <v>0.988294188252956</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.557005267552206</v>
+        <v>0.5627046215444408</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -1989,19 +1989,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5112234785476386</v>
+        <v>0.5390181656030486</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -2030,7 +2030,7 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5857937574056324</v>
+        <v>0.5601811500595579</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -2074,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5564826065646898</v>
+        <v>0.5037503732735276</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6084670543501907</v>
+        <v>0.5226681090105357</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -2210,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8138090062000666</v>
+        <v>0.8483853304615607</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -2248,7 +2248,7 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>19</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7096862327728719</v>
+        <v>0.7335105700284744</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -2289,7 +2289,7 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7800127109649158</v>
+        <v>0.7846309899726048</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8058140204642417</v>
+        <v>0.802757301002289</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7554670992911464</v>
+        <v>0.7047141919387978</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8138090062000666</v>
+        <v>0.8483853304615607</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -2507,19 +2507,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8973445754780899</v>
+        <v>0.8601160548480066</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -2548,7 +2548,7 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.863724061501162</v>
+        <v>0.8677005562085548</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8058140204642417</v>
+        <v>0.802757301002289</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -2633,16 +2633,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8533595794306199</v>
+        <v>0.8260004373364515</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>34</v>
@@ -2728,16 +2728,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9031130045223079</v>
+        <v>0.919110104529831</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -2766,19 +2766,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9178185479434082</v>
+        <v>0.9142350912514613</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -2807,7 +2807,7 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>23</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9356943171863583</v>
+        <v>0.9344781904230703</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>34</v>
@@ -2851,16 +2851,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.901404667334705</v>
+        <v>0.9238269975053375</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9285997803213272</v>
+        <v>0.9064905515677461</v>
       </c>
       <c r="G6">
         <v>21</v>
